--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_git\Mogo_Doc\VersionRecords\Version3.0.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13035"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -86,9 +81,6 @@
   </si>
   <si>
     <t>发现组</t>
-  </si>
-  <si>
-    <t>New Features</t>
   </si>
   <si>
     <t>BS</t>
@@ -190,6 +182,74 @@
   </si>
   <si>
     <t>推送一次性账单的时候没有提交按钮（有些电脑）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一用户模型写并行</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS端前台不打日志</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +913,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -943,13 +1003,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>20</v>
@@ -965,15 +1025,23 @@
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42450</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
@@ -985,13 +1053,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>20</v>
@@ -1007,15 +1075,23 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="26"/>
+      <c r="L3" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
@@ -1027,13 +1103,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>20</v>
@@ -1049,15 +1125,23 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="26"/>
+      <c r="L4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
@@ -1069,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>20</v>
@@ -1091,15 +1175,23 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
@@ -1111,13 +1203,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>20</v>
@@ -1133,15 +1225,23 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="26"/>
+      <c r="L6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
@@ -1153,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>20</v>
@@ -1175,15 +1275,23 @@
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="26"/>
+      <c r="L7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
@@ -1195,13 +1303,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>20</v>
@@ -1217,7 +1325,7 @@
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>21</v>
@@ -1237,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>20</v>
@@ -1259,15 +1367,23 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="26"/>
+        <v>65</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
@@ -1275,15 +1391,34 @@
       <c r="T9" s="31"/>
     </row>
     <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="17">
+        <v>42450</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="17">
+        <v>42450</v>
+      </c>
       <c r="I10" s="16"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="26"/>
@@ -1296,17 +1431,37 @@
       <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="17">
+        <v>42450</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="17">
+        <v>42450</v>
+      </c>
       <c r="I11" s="16"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="L11" s="16"/>
       <c r="M11" s="26"/>
       <c r="N11" s="17"/>
@@ -5616,28 +5771,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -250,6 +250,18 @@
   </si>
   <si>
     <t>发现组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +925,7 @@
   <dimension ref="A1:T217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1370,13 +1382,13 @@
         <v>23</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="N9" s="17">
         <v>42451</v>
@@ -1420,10 +1432,18 @@
         <v>59</v>
       </c>
       <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="26"/>
+      <c r="L10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -1460,7 +1480,7 @@
         <v>64</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="26"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -209,38 +209,22 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>统一用户模型写并行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>BS端前台不打日志</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>BS</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>田志敏</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS端前台不打日志</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Features</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>李亚林</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -254,14 +238,6 @@
   </si>
   <si>
     <t>Pass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,7 +1194,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>45</v>
@@ -1382,13 +1358,13 @@
         <v>23</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>51</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N9" s="17">
         <v>42451</v>
@@ -1407,13 +1383,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>20</v>
@@ -1429,21 +1405,15 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="17">
-        <v>42451</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>69</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
@@ -1451,37 +1421,17 @@
       <c r="T10" s="31"/>
     </row>
     <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
-        <v>10</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="17">
-        <v>42450</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="17">
-        <v>42450</v>
-      </c>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>65</v>
-      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="M11" s="26"/>
       <c r="N11" s="17"/>
@@ -1499,7 +1449,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="17"/>
       <c r="I12" s="16"/>
       <c r="J12" s="26"/>
@@ -1521,7 +1471,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="16"/>
       <c r="J13" s="26"/>
@@ -1574,15 +1524,15 @@
       <c r="M15" s="26"/>
       <c r="N15" s="17"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
     <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -1624,9 +1574,9 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
@@ -1873,7 +1823,7 @@
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="16"/>
       <c r="H29" s="17"/>
       <c r="I29" s="16"/>
       <c r="J29" s="26"/>
@@ -1939,7 +1889,7 @@
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="16"/>
       <c r="J32" s="26"/>
@@ -2527,25 +2477,25 @@
       <c r="T58" s="31"/>
     </row>
     <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="14"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="16"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="16"/>
       <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="26"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="21"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
-      <c r="S59" s="30"/>
+      <c r="S59" s="21"/>
       <c r="T59" s="31"/>
     </row>
     <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2570,27 +2520,26 @@
       <c r="S60" s="21"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="20"/>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="21"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="24"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="31"/>
+      <c r="S61" s="24"/>
     </row>
     <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
@@ -3731,7 +3680,7 @@
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
       <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="25"/>
       <c r="G116" s="23"/>
       <c r="H116" s="25"/>
@@ -3852,11 +3801,11 @@
       <c r="R121" s="23"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="C122" s="23"/>
-      <c r="D122" s="16"/>
+      <c r="D122" s="23"/>
       <c r="E122" s="23"/>
       <c r="F122" s="25"/>
       <c r="G122" s="23"/>
@@ -5128,9 +5077,6 @@
       <c r="M182" s="23"/>
       <c r="N182" s="25"/>
       <c r="O182" s="24"/>
-      <c r="P182" s="23"/>
-      <c r="Q182" s="23"/>
-      <c r="R182" s="23"/>
       <c r="S182" s="24"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
@@ -5744,24 +5690,6 @@
       <c r="N216" s="25"/>
       <c r="O216" s="24"/>
       <c r="S216" s="24"/>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A217" s="23"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="23"/>
-      <c r="D217" s="23"/>
-      <c r="E217" s="23"/>
-      <c r="F217" s="25"/>
-      <c r="G217" s="23"/>
-      <c r="H217" s="25"/>
-      <c r="I217" s="29"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-      <c r="L217" s="23"/>
-      <c r="M217" s="23"/>
-      <c r="N217" s="25"/>
-      <c r="O217" s="24"/>
-      <c r="S217" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28695" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>No</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>余星赞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +913,7 @@
   <dimension ref="A1:T216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,7 +1373,7 @@
         <v>62</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>63</v>
@@ -1410,10 +1422,18 @@
       <c r="K10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="26"/>
+      <c r="L10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
@@ -10,12 +10,12 @@
     <sheet name="版本3.0.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>No</t>
   </si>
@@ -250,14 +250,26 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常场景的保护提示信息，极少出现，测试场景无法复现，线上观察</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -909,14 +921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="11" customWidth="1"/>
@@ -939,7 +951,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -998,7 +1010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1048,7 +1060,7 @@
       <c r="S2" s="30"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1098,7 +1110,7 @@
       <c r="S3" s="30"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1148,7 +1160,7 @@
       <c r="S4" s="30"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1198,7 +1210,7 @@
       <c r="S5" s="30"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1248,7 +1260,7 @@
       <c r="S6" s="30"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1298,7 +1310,7 @@
       <c r="S7" s="30"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1330,17 +1342,27 @@
       <c r="K8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="26"/>
+      <c r="L8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="17">
+        <v>42451</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="30"/>
+      <c r="S8" s="30" t="s">
+        <v>69</v>
+      </c>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1390,7 +1412,7 @@
       <c r="S9" s="30"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1440,7 +1462,7 @@
       <c r="S10" s="30"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
@@ -1462,7 +1484,7 @@
       <c r="S11" s="30"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
@@ -1484,7 +1506,7 @@
       <c r="S12" s="30"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A13" s="14"/>
       <c r="B13" s="15"/>
       <c r="C13" s="16"/>
@@ -1506,7 +1528,7 @@
       <c r="S13" s="30"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>
@@ -1528,7 +1550,7 @@
       <c r="S14" s="30"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
@@ -1550,7 +1572,7 @@
       <c r="S15" s="30"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14"/>
       <c r="B16" s="18"/>
       <c r="C16" s="16"/>
@@ -1572,7 +1594,7 @@
       <c r="S16" s="30"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14"/>
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
@@ -1594,7 +1616,7 @@
       <c r="S17" s="30"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
       <c r="C18" s="16"/>
@@ -1616,7 +1638,7 @@
       <c r="S18" s="30"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="19"/>
       <c r="C19" s="16"/>
@@ -1638,7 +1660,7 @@
       <c r="S19" s="30"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
       <c r="C20" s="16"/>
@@ -1660,7 +1682,7 @@
       <c r="S20" s="30"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16"/>
@@ -1682,7 +1704,7 @@
       <c r="S21" s="30"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
       <c r="C22" s="16"/>
@@ -1704,7 +1726,7 @@
       <c r="S22" s="30"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="19"/>
       <c r="C23" s="16"/>
@@ -1726,7 +1748,7 @@
       <c r="S23" s="30"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="19"/>
       <c r="C24" s="16"/>
@@ -1748,7 +1770,7 @@
       <c r="S24" s="30"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="19"/>
       <c r="C25" s="16"/>
@@ -1770,7 +1792,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="19"/>
       <c r="C26" s="16"/>
@@ -1792,7 +1814,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="31"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="19"/>
       <c r="C27" s="16"/>
@@ -1814,7 +1836,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="31"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="19"/>
       <c r="C28" s="16"/>
@@ -1836,7 +1858,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="19"/>
       <c r="C29" s="16"/>
@@ -1858,7 +1880,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="19"/>
       <c r="C30" s="16"/>
@@ -1880,7 +1902,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="19"/>
       <c r="C31" s="16"/>
@@ -1902,7 +1924,7 @@
       <c r="S31" s="30"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="19"/>
       <c r="C32" s="16"/>
@@ -1924,7 +1946,7 @@
       <c r="S32" s="30"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="19"/>
       <c r="C33" s="16"/>
@@ -1946,7 +1968,7 @@
       <c r="S33" s="30"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="19"/>
       <c r="C34" s="16"/>
@@ -1968,7 +1990,7 @@
       <c r="S34" s="30"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="19"/>
       <c r="C35" s="16"/>
@@ -1990,7 +2012,7 @@
       <c r="S35" s="30"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="14"/>
       <c r="B36" s="19"/>
       <c r="C36" s="16"/>
@@ -2012,7 +2034,7 @@
       <c r="S36" s="30"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="14"/>
       <c r="B37" s="19"/>
       <c r="C37" s="16"/>
@@ -2034,7 +2056,7 @@
       <c r="S37" s="30"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="14"/>
       <c r="B38" s="19"/>
       <c r="C38" s="16"/>
@@ -2056,7 +2078,7 @@
       <c r="S38" s="30"/>
       <c r="T38" s="31"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="14"/>
       <c r="B39" s="19"/>
       <c r="C39" s="16"/>
@@ -2078,7 +2100,7 @@
       <c r="S39" s="30"/>
       <c r="T39" s="31"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="14"/>
       <c r="B40" s="19"/>
       <c r="C40" s="16"/>
@@ -2100,7 +2122,7 @@
       <c r="S40" s="30"/>
       <c r="T40" s="31"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="14"/>
       <c r="B41" s="19"/>
       <c r="C41" s="16"/>
@@ -2122,7 +2144,7 @@
       <c r="S41" s="30"/>
       <c r="T41" s="31"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="14"/>
       <c r="B42" s="19"/>
       <c r="C42" s="16"/>
@@ -2144,7 +2166,7 @@
       <c r="S42" s="30"/>
       <c r="T42" s="31"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="14"/>
       <c r="B43" s="19"/>
       <c r="C43" s="16"/>
@@ -2166,7 +2188,7 @@
       <c r="S43" s="30"/>
       <c r="T43" s="31"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="14"/>
       <c r="B44" s="19"/>
       <c r="C44" s="16"/>
@@ -2188,7 +2210,7 @@
       <c r="S44" s="30"/>
       <c r="T44" s="31"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="14"/>
       <c r="B45" s="19"/>
       <c r="C45" s="16"/>
@@ -2210,7 +2232,7 @@
       <c r="S45" s="30"/>
       <c r="T45" s="31"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="14"/>
       <c r="B46" s="19"/>
       <c r="C46" s="16"/>
@@ -2232,7 +2254,7 @@
       <c r="S46" s="30"/>
       <c r="T46" s="31"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="14"/>
       <c r="B47" s="19"/>
       <c r="C47" s="16"/>
@@ -2254,7 +2276,7 @@
       <c r="S47" s="30"/>
       <c r="T47" s="31"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="14"/>
       <c r="B48" s="19"/>
       <c r="C48" s="16"/>
@@ -2276,7 +2298,7 @@
       <c r="S48" s="30"/>
       <c r="T48" s="31"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A49" s="14"/>
       <c r="B49" s="19"/>
       <c r="C49" s="16"/>
@@ -2298,7 +2320,7 @@
       <c r="S49" s="30"/>
       <c r="T49" s="31"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A50" s="14"/>
       <c r="B50" s="19"/>
       <c r="C50" s="16"/>
@@ -2320,7 +2342,7 @@
       <c r="S50" s="30"/>
       <c r="T50" s="31"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="14"/>
       <c r="B51" s="19"/>
       <c r="C51" s="16"/>
@@ -2342,7 +2364,7 @@
       <c r="S51" s="30"/>
       <c r="T51" s="31"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="14"/>
       <c r="B52" s="19"/>
       <c r="C52" s="16"/>
@@ -2364,7 +2386,7 @@
       <c r="S52" s="30"/>
       <c r="T52" s="31"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="14"/>
       <c r="B53" s="19"/>
       <c r="C53" s="16"/>
@@ -2386,7 +2408,7 @@
       <c r="S53" s="30"/>
       <c r="T53" s="31"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="14"/>
       <c r="B54" s="19"/>
       <c r="C54" s="16"/>
@@ -2408,7 +2430,7 @@
       <c r="S54" s="30"/>
       <c r="T54" s="31"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="14"/>
       <c r="B55" s="19"/>
       <c r="C55" s="16"/>
@@ -2430,7 +2452,7 @@
       <c r="S55" s="30"/>
       <c r="T55" s="31"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="14"/>
       <c r="B56" s="19"/>
       <c r="C56" s="16"/>
@@ -2452,7 +2474,7 @@
       <c r="S56" s="30"/>
       <c r="T56" s="31"/>
     </row>
-    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A57" s="14"/>
       <c r="B57" s="19"/>
       <c r="C57" s="16"/>
@@ -2474,7 +2496,7 @@
       <c r="S57" s="30"/>
       <c r="T57" s="31"/>
     </row>
-    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A58" s="14"/>
       <c r="B58" s="19"/>
       <c r="C58" s="16"/>
@@ -2496,7 +2518,7 @@
       <c r="S58" s="30"/>
       <c r="T58" s="31"/>
     </row>
-    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="20"/>
@@ -2518,7 +2540,7 @@
       <c r="S59" s="21"/>
       <c r="T59" s="31"/>
     </row>
-    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="20"/>
@@ -2540,7 +2562,7 @@
       <c r="S60" s="21"/>
       <c r="T60" s="31"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="23"/>
@@ -2561,7 +2583,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="24"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="23"/>
@@ -2582,7 +2604,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="24"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="23"/>
@@ -2603,7 +2625,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="24"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="23"/>
@@ -2624,7 +2646,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="24"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="23"/>
       <c r="B65" s="24"/>
       <c r="C65" s="23"/>
@@ -2645,7 +2667,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="24"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="23"/>
@@ -2666,7 +2688,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="24"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="23"/>
@@ -2687,7 +2709,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="24"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="23"/>
@@ -2708,7 +2730,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="24"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="23"/>
       <c r="B69" s="24"/>
       <c r="C69" s="23"/>
@@ -2729,7 +2751,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="24"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="23"/>
@@ -2750,7 +2772,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="24"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
       <c r="B71" s="24"/>
       <c r="C71" s="23"/>
@@ -2771,7 +2793,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="24"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
       <c r="B72" s="24"/>
       <c r="C72" s="23"/>
@@ -2792,7 +2814,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="24"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
       <c r="B73" s="24"/>
       <c r="C73" s="23"/>
@@ -2813,7 +2835,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="24"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
       <c r="B74" s="24"/>
       <c r="C74" s="23"/>
@@ -2834,7 +2856,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="24"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
       <c r="B75" s="24"/>
       <c r="C75" s="23"/>
@@ -2855,7 +2877,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="24"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
       <c r="B76" s="24"/>
       <c r="C76" s="23"/>
@@ -2876,7 +2898,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="24"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
       <c r="B77" s="24"/>
       <c r="C77" s="23"/>
@@ -2897,7 +2919,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="24"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
       <c r="B78" s="24"/>
       <c r="C78" s="23"/>
@@ -2918,7 +2940,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="24"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
       <c r="B79" s="24"/>
       <c r="C79" s="23"/>
@@ -2939,7 +2961,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="24"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="23"/>
       <c r="B80" s="24"/>
       <c r="C80" s="23"/>
@@ -2960,7 +2982,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="24"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="23"/>
       <c r="B81" s="24"/>
       <c r="C81" s="23"/>
@@ -2981,7 +3003,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="24"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="23"/>
       <c r="B82" s="24"/>
       <c r="C82" s="23"/>
@@ -3002,7 +3024,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="24"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="23"/>
       <c r="B83" s="24"/>
       <c r="C83" s="23"/>
@@ -3023,7 +3045,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="24"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="23"/>
       <c r="B84" s="24"/>
       <c r="C84" s="23"/>
@@ -3044,7 +3066,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="24"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="23"/>
       <c r="B85" s="24"/>
       <c r="C85" s="23"/>
@@ -3065,7 +3087,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="24"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="23"/>
       <c r="B86" s="24"/>
       <c r="C86" s="23"/>
@@ -3086,7 +3108,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="24"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="23"/>
       <c r="B87" s="24"/>
       <c r="C87" s="23"/>
@@ -3107,7 +3129,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="24"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="23"/>
       <c r="B88" s="24"/>
       <c r="C88" s="23"/>
@@ -3128,7 +3150,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="24"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="23"/>
       <c r="B89" s="24"/>
       <c r="C89" s="23"/>
@@ -3149,7 +3171,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="24"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="23"/>
       <c r="B90" s="24"/>
       <c r="C90" s="23"/>
@@ -3170,7 +3192,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="24"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="23"/>
       <c r="B91" s="24"/>
       <c r="C91" s="23"/>
@@ -3191,7 +3213,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="24"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="23"/>
       <c r="B92" s="24"/>
       <c r="C92" s="23"/>
@@ -3212,7 +3234,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="24"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="23"/>
       <c r="B93" s="24"/>
       <c r="C93" s="23"/>
@@ -3233,7 +3255,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="24"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="23"/>
       <c r="B94" s="24"/>
       <c r="C94" s="23"/>
@@ -3254,7 +3276,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="24"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="23"/>
       <c r="B95" s="24"/>
       <c r="C95" s="23"/>
@@ -3275,7 +3297,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="24"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="23"/>
       <c r="B96" s="24"/>
       <c r="C96" s="23"/>
@@ -3296,7 +3318,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="24"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="23"/>
       <c r="B97" s="24"/>
       <c r="C97" s="23"/>
@@ -3317,7 +3339,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="24"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="23"/>
       <c r="B98" s="24"/>
       <c r="C98" s="23"/>
@@ -3338,7 +3360,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="24"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="23"/>
       <c r="B99" s="24"/>
       <c r="C99" s="23"/>
@@ -3359,7 +3381,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="24"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="23"/>
       <c r="B100" s="24"/>
       <c r="C100" s="23"/>
@@ -3380,7 +3402,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="24"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="23"/>
       <c r="B101" s="24"/>
       <c r="C101" s="23"/>
@@ -3401,7 +3423,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="24"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="23"/>
       <c r="B102" s="24"/>
       <c r="C102" s="23"/>
@@ -3422,7 +3444,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="24"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="23"/>
       <c r="B103" s="24"/>
       <c r="C103" s="23"/>
@@ -3443,7 +3465,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="24"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="23"/>
       <c r="B104" s="24"/>
       <c r="C104" s="23"/>
@@ -3464,7 +3486,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="24"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="23"/>
       <c r="B105" s="24"/>
       <c r="C105" s="23"/>
@@ -3485,7 +3507,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="24"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="23"/>
       <c r="B106" s="24"/>
       <c r="C106" s="23"/>
@@ -3506,7 +3528,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="24"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="23"/>
       <c r="B107" s="24"/>
       <c r="C107" s="23"/>
@@ -3527,7 +3549,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="24"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="23"/>
       <c r="B108" s="24"/>
       <c r="C108" s="23"/>
@@ -3548,7 +3570,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="24"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="23"/>
       <c r="B109" s="24"/>
       <c r="C109" s="23"/>
@@ -3569,7 +3591,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="24"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="23"/>
       <c r="B110" s="24"/>
       <c r="C110" s="23"/>
@@ -3590,7 +3612,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="24"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="23"/>
       <c r="B111" s="24"/>
       <c r="C111" s="23"/>
@@ -3611,7 +3633,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="24"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="23"/>
       <c r="B112" s="24"/>
       <c r="C112" s="23"/>
@@ -3632,7 +3654,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="24"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="23"/>
       <c r="B113" s="24"/>
       <c r="C113" s="23"/>
@@ -3653,7 +3675,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="24"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="23"/>
       <c r="B114" s="24"/>
       <c r="C114" s="23"/>
@@ -3674,7 +3696,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="24"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="23"/>
       <c r="B115" s="24"/>
       <c r="C115" s="23"/>
@@ -3695,7 +3717,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="24"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="23"/>
       <c r="B116" s="24"/>
       <c r="C116" s="23"/>
@@ -3716,7 +3738,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="24"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="23"/>
       <c r="B117" s="24"/>
       <c r="C117" s="23"/>
@@ -3737,7 +3759,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="24"/>
     </row>
-    <row r="118" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="23"/>
       <c r="B118" s="24"/>
       <c r="C118" s="23"/>
@@ -3758,7 +3780,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="24"/>
     </row>
-    <row r="119" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="23"/>
       <c r="B119" s="24"/>
       <c r="C119" s="23"/>
@@ -3779,7 +3801,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="24"/>
     </row>
-    <row r="120" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="23"/>
       <c r="B120" s="24"/>
       <c r="C120" s="23"/>
@@ -3800,7 +3822,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="24"/>
     </row>
-    <row r="121" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="23"/>
       <c r="B121" s="24"/>
       <c r="C121" s="23"/>
@@ -3821,7 +3843,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="24"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="23"/>
       <c r="B122" s="24"/>
       <c r="C122" s="23"/>
@@ -3842,7 +3864,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="24"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="23"/>
       <c r="B123" s="24"/>
       <c r="C123" s="23"/>
@@ -3863,7 +3885,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="24"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="23"/>
       <c r="B124" s="24"/>
       <c r="C124" s="23"/>
@@ -3884,7 +3906,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="24"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="23"/>
       <c r="B125" s="24"/>
       <c r="C125" s="23"/>
@@ -3905,7 +3927,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="24"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="23"/>
       <c r="B126" s="24"/>
       <c r="C126" s="23"/>
@@ -3926,7 +3948,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="24"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="23"/>
       <c r="B127" s="24"/>
       <c r="C127" s="23"/>
@@ -3947,7 +3969,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="24"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="23"/>
       <c r="B128" s="24"/>
       <c r="C128" s="23"/>
@@ -3968,7 +3990,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="24"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="23"/>
       <c r="B129" s="24"/>
       <c r="C129" s="23"/>
@@ -3989,7 +4011,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="24"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="23"/>
       <c r="B130" s="24"/>
       <c r="C130" s="23"/>
@@ -4010,7 +4032,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="24"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="23"/>
       <c r="B131" s="24"/>
       <c r="C131" s="23"/>
@@ -4031,7 +4053,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="24"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="23"/>
       <c r="B132" s="24"/>
       <c r="C132" s="23"/>
@@ -4052,7 +4074,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="24"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="23"/>
       <c r="B133" s="24"/>
       <c r="C133" s="23"/>
@@ -4073,7 +4095,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="24"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="23"/>
       <c r="B134" s="24"/>
       <c r="C134" s="23"/>
@@ -4094,7 +4116,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="24"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="23"/>
       <c r="B135" s="24"/>
       <c r="C135" s="23"/>
@@ -4115,7 +4137,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="24"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="23"/>
       <c r="B136" s="24"/>
       <c r="C136" s="23"/>
@@ -4136,7 +4158,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="24"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="23"/>
       <c r="B137" s="24"/>
       <c r="C137" s="23"/>
@@ -4157,7 +4179,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="24"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="23"/>
       <c r="B138" s="24"/>
       <c r="C138" s="23"/>
@@ -4178,7 +4200,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="24"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="23"/>
       <c r="B139" s="24"/>
       <c r="C139" s="23"/>
@@ -4199,7 +4221,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="24"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="23"/>
       <c r="B140" s="24"/>
       <c r="C140" s="23"/>
@@ -4220,7 +4242,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="24"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="23"/>
       <c r="B141" s="24"/>
       <c r="C141" s="23"/>
@@ -4241,7 +4263,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="24"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="23"/>
       <c r="B142" s="24"/>
       <c r="C142" s="23"/>
@@ -4262,7 +4284,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="24"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="23"/>
       <c r="B143" s="24"/>
       <c r="C143" s="23"/>
@@ -4283,7 +4305,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="24"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="23"/>
       <c r="B144" s="24"/>
       <c r="C144" s="23"/>
@@ -4304,7 +4326,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="24"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="23"/>
       <c r="B145" s="24"/>
       <c r="C145" s="23"/>
@@ -4325,7 +4347,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="24"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="23"/>
       <c r="B146" s="24"/>
       <c r="C146" s="23"/>
@@ -4346,7 +4368,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="24"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="23"/>
       <c r="B147" s="24"/>
       <c r="C147" s="23"/>
@@ -4367,7 +4389,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="24"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="23"/>
       <c r="B148" s="24"/>
       <c r="C148" s="23"/>
@@ -4388,7 +4410,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="24"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="23"/>
       <c r="B149" s="24"/>
       <c r="C149" s="23"/>
@@ -4409,7 +4431,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="24"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="23"/>
       <c r="B150" s="24"/>
       <c r="C150" s="23"/>
@@ -4430,7 +4452,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="24"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="23"/>
       <c r="B151" s="24"/>
       <c r="C151" s="23"/>
@@ -4451,7 +4473,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="24"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="23"/>
       <c r="B152" s="24"/>
       <c r="C152" s="23"/>
@@ -4472,7 +4494,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="24"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="23"/>
       <c r="B153" s="24"/>
       <c r="C153" s="23"/>
@@ -4493,7 +4515,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="24"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="23"/>
       <c r="B154" s="24"/>
       <c r="C154" s="23"/>
@@ -4514,7 +4536,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="24"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="23"/>
       <c r="B155" s="24"/>
       <c r="C155" s="23"/>
@@ -4535,7 +4557,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="24"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="23"/>
       <c r="B156" s="24"/>
       <c r="C156" s="23"/>
@@ -4556,7 +4578,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="24"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="23"/>
       <c r="B157" s="24"/>
       <c r="C157" s="23"/>
@@ -4577,7 +4599,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="24"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="23"/>
       <c r="B158" s="24"/>
       <c r="C158" s="23"/>
@@ -4598,7 +4620,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="24"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="23"/>
       <c r="B159" s="24"/>
       <c r="C159" s="23"/>
@@ -4619,7 +4641,7 @@
       <c r="R159" s="23"/>
       <c r="S159" s="24"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="23"/>
       <c r="B160" s="24"/>
       <c r="C160" s="23"/>
@@ -4640,7 +4662,7 @@
       <c r="R160" s="23"/>
       <c r="S160" s="24"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="23"/>
       <c r="B161" s="24"/>
       <c r="C161" s="23"/>
@@ -4661,7 +4683,7 @@
       <c r="R161" s="23"/>
       <c r="S161" s="24"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="23"/>
       <c r="B162" s="24"/>
       <c r="C162" s="23"/>
@@ -4682,7 +4704,7 @@
       <c r="R162" s="23"/>
       <c r="S162" s="24"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="23"/>
       <c r="B163" s="24"/>
       <c r="C163" s="23"/>
@@ -4703,7 +4725,7 @@
       <c r="R163" s="23"/>
       <c r="S163" s="24"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="23"/>
       <c r="B164" s="24"/>
       <c r="C164" s="23"/>
@@ -4724,7 +4746,7 @@
       <c r="R164" s="23"/>
       <c r="S164" s="24"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="23"/>
       <c r="B165" s="24"/>
       <c r="C165" s="23"/>
@@ -4745,7 +4767,7 @@
       <c r="R165" s="23"/>
       <c r="S165" s="24"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="23"/>
       <c r="B166" s="24"/>
       <c r="C166" s="23"/>
@@ -4766,7 +4788,7 @@
       <c r="R166" s="23"/>
       <c r="S166" s="24"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="23"/>
       <c r="B167" s="24"/>
       <c r="C167" s="23"/>
@@ -4787,7 +4809,7 @@
       <c r="R167" s="23"/>
       <c r="S167" s="24"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="23"/>
       <c r="B168" s="24"/>
       <c r="C168" s="23"/>
@@ -4808,7 +4830,7 @@
       <c r="R168" s="23"/>
       <c r="S168" s="24"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="23"/>
       <c r="B169" s="24"/>
       <c r="C169" s="23"/>
@@ -4829,7 +4851,7 @@
       <c r="R169" s="23"/>
       <c r="S169" s="24"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="23"/>
       <c r="B170" s="24"/>
       <c r="C170" s="23"/>
@@ -4850,7 +4872,7 @@
       <c r="R170" s="23"/>
       <c r="S170" s="24"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="23"/>
       <c r="B171" s="24"/>
       <c r="C171" s="23"/>
@@ -4871,7 +4893,7 @@
       <c r="R171" s="23"/>
       <c r="S171" s="24"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="23"/>
       <c r="B172" s="24"/>
       <c r="C172" s="23"/>
@@ -4892,7 +4914,7 @@
       <c r="R172" s="23"/>
       <c r="S172" s="24"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="23"/>
       <c r="B173" s="24"/>
       <c r="C173" s="23"/>
@@ -4913,7 +4935,7 @@
       <c r="R173" s="23"/>
       <c r="S173" s="24"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="23"/>
       <c r="B174" s="24"/>
       <c r="C174" s="23"/>
@@ -4934,7 +4956,7 @@
       <c r="R174" s="23"/>
       <c r="S174" s="24"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="23"/>
       <c r="B175" s="24"/>
       <c r="C175" s="23"/>
@@ -4955,7 +4977,7 @@
       <c r="R175" s="23"/>
       <c r="S175" s="24"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="23"/>
       <c r="B176" s="24"/>
       <c r="C176" s="23"/>
@@ -4976,7 +4998,7 @@
       <c r="R176" s="23"/>
       <c r="S176" s="24"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="23"/>
       <c r="B177" s="24"/>
       <c r="C177" s="23"/>
@@ -4997,7 +5019,7 @@
       <c r="R177" s="23"/>
       <c r="S177" s="24"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="23"/>
       <c r="B178" s="24"/>
       <c r="C178" s="23"/>
@@ -5018,7 +5040,7 @@
       <c r="R178" s="23"/>
       <c r="S178" s="24"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="23"/>
       <c r="B179" s="24"/>
       <c r="C179" s="23"/>
@@ -5039,7 +5061,7 @@
       <c r="R179" s="23"/>
       <c r="S179" s="24"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="23"/>
       <c r="B180" s="24"/>
       <c r="C180" s="23"/>
@@ -5060,7 +5082,7 @@
       <c r="R180" s="23"/>
       <c r="S180" s="24"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="23"/>
       <c r="B181" s="24"/>
       <c r="C181" s="23"/>
@@ -5081,7 +5103,7 @@
       <c r="R181" s="23"/>
       <c r="S181" s="24"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="23"/>
       <c r="B182" s="24"/>
       <c r="C182" s="23"/>
@@ -5099,7 +5121,7 @@
       <c r="O182" s="24"/>
       <c r="S182" s="24"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="23"/>
       <c r="B183" s="24"/>
       <c r="C183" s="23"/>
@@ -5117,7 +5139,7 @@
       <c r="O183" s="24"/>
       <c r="S183" s="24"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="23"/>
       <c r="B184" s="24"/>
       <c r="C184" s="23"/>
@@ -5135,7 +5157,7 @@
       <c r="O184" s="24"/>
       <c r="S184" s="24"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="23"/>
       <c r="B185" s="24"/>
       <c r="C185" s="23"/>
@@ -5153,7 +5175,7 @@
       <c r="O185" s="24"/>
       <c r="S185" s="24"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="23"/>
       <c r="B186" s="24"/>
       <c r="C186" s="23"/>
@@ -5171,7 +5193,7 @@
       <c r="O186" s="24"/>
       <c r="S186" s="24"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="23"/>
       <c r="B187" s="24"/>
       <c r="C187" s="23"/>
@@ -5189,7 +5211,7 @@
       <c r="O187" s="24"/>
       <c r="S187" s="24"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="23"/>
       <c r="B188" s="24"/>
       <c r="C188" s="23"/>
@@ -5207,7 +5229,7 @@
       <c r="O188" s="24"/>
       <c r="S188" s="24"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="23"/>
       <c r="B189" s="24"/>
       <c r="C189" s="23"/>
@@ -5225,7 +5247,7 @@
       <c r="O189" s="24"/>
       <c r="S189" s="24"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="23"/>
       <c r="B190" s="24"/>
       <c r="C190" s="23"/>
@@ -5243,7 +5265,7 @@
       <c r="O190" s="24"/>
       <c r="S190" s="24"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="23"/>
       <c r="B191" s="24"/>
       <c r="C191" s="23"/>
@@ -5261,7 +5283,7 @@
       <c r="O191" s="24"/>
       <c r="S191" s="24"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="23"/>
       <c r="B192" s="24"/>
       <c r="C192" s="23"/>
@@ -5279,7 +5301,7 @@
       <c r="O192" s="24"/>
       <c r="S192" s="24"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="23"/>
       <c r="B193" s="24"/>
       <c r="C193" s="23"/>
@@ -5297,7 +5319,7 @@
       <c r="O193" s="24"/>
       <c r="S193" s="24"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="23"/>
       <c r="B194" s="24"/>
       <c r="C194" s="23"/>
@@ -5315,7 +5337,7 @@
       <c r="O194" s="24"/>
       <c r="S194" s="24"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="23"/>
       <c r="B195" s="24"/>
       <c r="C195" s="23"/>
@@ -5333,7 +5355,7 @@
       <c r="O195" s="24"/>
       <c r="S195" s="24"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="23"/>
       <c r="B196" s="24"/>
       <c r="C196" s="23"/>
@@ -5351,7 +5373,7 @@
       <c r="O196" s="24"/>
       <c r="S196" s="24"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="23"/>
       <c r="B197" s="24"/>
       <c r="C197" s="23"/>
@@ -5369,7 +5391,7 @@
       <c r="O197" s="24"/>
       <c r="S197" s="24"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="23"/>
       <c r="B198" s="24"/>
       <c r="C198" s="23"/>
@@ -5387,7 +5409,7 @@
       <c r="O198" s="24"/>
       <c r="S198" s="24"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="23"/>
       <c r="B199" s="24"/>
       <c r="C199" s="23"/>
@@ -5405,7 +5427,7 @@
       <c r="O199" s="24"/>
       <c r="S199" s="24"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="23"/>
       <c r="B200" s="24"/>
       <c r="C200" s="23"/>
@@ -5423,7 +5445,7 @@
       <c r="O200" s="24"/>
       <c r="S200" s="24"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="23"/>
       <c r="B201" s="24"/>
       <c r="C201" s="23"/>
@@ -5441,7 +5463,7 @@
       <c r="O201" s="24"/>
       <c r="S201" s="24"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="23"/>
       <c r="B202" s="24"/>
       <c r="C202" s="23"/>
@@ -5459,7 +5481,7 @@
       <c r="O202" s="24"/>
       <c r="S202" s="24"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="23"/>
       <c r="B203" s="24"/>
       <c r="C203" s="23"/>
@@ -5477,7 +5499,7 @@
       <c r="O203" s="24"/>
       <c r="S203" s="24"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="23"/>
       <c r="B204" s="24"/>
       <c r="C204" s="23"/>
@@ -5495,7 +5517,7 @@
       <c r="O204" s="24"/>
       <c r="S204" s="24"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="23"/>
       <c r="B205" s="24"/>
       <c r="C205" s="23"/>
@@ -5513,7 +5535,7 @@
       <c r="O205" s="24"/>
       <c r="S205" s="24"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="23"/>
       <c r="B206" s="24"/>
       <c r="C206" s="23"/>
@@ -5531,7 +5553,7 @@
       <c r="O206" s="24"/>
       <c r="S206" s="24"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="23"/>
       <c r="B207" s="24"/>
       <c r="C207" s="23"/>
@@ -5549,7 +5571,7 @@
       <c r="O207" s="24"/>
       <c r="S207" s="24"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19">
       <c r="A208" s="23"/>
       <c r="B208" s="24"/>
       <c r="C208" s="23"/>
@@ -5567,7 +5589,7 @@
       <c r="O208" s="24"/>
       <c r="S208" s="24"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19">
       <c r="A209" s="23"/>
       <c r="B209" s="24"/>
       <c r="C209" s="23"/>
@@ -5585,7 +5607,7 @@
       <c r="O209" s="24"/>
       <c r="S209" s="24"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19">
       <c r="A210" s="23"/>
       <c r="B210" s="24"/>
       <c r="C210" s="23"/>
@@ -5603,7 +5625,7 @@
       <c r="O210" s="24"/>
       <c r="S210" s="24"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19">
       <c r="A211" s="23"/>
       <c r="B211" s="24"/>
       <c r="C211" s="23"/>
@@ -5621,7 +5643,7 @@
       <c r="O211" s="24"/>
       <c r="S211" s="24"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19">
       <c r="A212" s="23"/>
       <c r="B212" s="24"/>
       <c r="C212" s="23"/>
@@ -5639,7 +5661,7 @@
       <c r="O212" s="24"/>
       <c r="S212" s="24"/>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19">
       <c r="A213" s="23"/>
       <c r="B213" s="24"/>
       <c r="C213" s="23"/>
@@ -5657,7 +5679,7 @@
       <c r="O213" s="24"/>
       <c r="S213" s="24"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19">
       <c r="A214" s="23"/>
       <c r="B214" s="24"/>
       <c r="C214" s="23"/>
@@ -5675,7 +5697,7 @@
       <c r="O214" s="24"/>
       <c r="S214" s="24"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19">
       <c r="A215" s="23"/>
       <c r="B215" s="24"/>
       <c r="C215" s="23"/>
@@ -5693,7 +5715,7 @@
       <c r="O215" s="24"/>
       <c r="S215" s="24"/>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19">
       <c r="A216" s="23"/>
       <c r="B216" s="24"/>
       <c r="C216" s="23"/>
@@ -5719,14 +5741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5737,7 +5759,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -5763,7 +5785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5773,7 +5795,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5783,7 +5805,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5793,7 +5815,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5803,7 +5825,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5813,7 +5835,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5823,7 +5845,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5833,7 +5855,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5843,7 +5865,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5853,7 +5875,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5863,7 +5885,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5873,7 +5895,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5883,7 +5905,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5893,7 +5915,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5903,7 +5925,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -5913,7 +5935,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -5923,7 +5945,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5933,7 +5955,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
